--- a/interactive_map_women.xlsx
+++ b/interactive_map_women.xlsx
@@ -962,7 +962,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>United</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Ethiopi</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">

--- a/interactive_map_women.xlsx
+++ b/interactive_map_women.xlsx
@@ -440,7 +440,7 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>contry_citizenship</t>
+          <t>country_citizenship</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
